--- a/test.xlsx
+++ b/test.xlsx
@@ -14,111 +14,195 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>category|</t>
-  </si>
-  <si>
-    <t>from|</t>
-  </si>
-  <si>
-    <t>id|class|class|</t>
-  </si>
-  <si>
-    <t>id|class|grade|</t>
-  </si>
-  <si>
-    <t>id|class|school|duration|end|</t>
-  </si>
-  <si>
-    <t>id|class|school|duration|start|</t>
-  </si>
-  <si>
-    <t>id|class|school|name|</t>
-  </si>
-  <si>
-    <t>id|contact|phone0|</t>
-  </si>
-  <si>
-    <t>id|drive_id|</t>
-  </si>
-  <si>
-    <t>id|id|</t>
-  </si>
-  <si>
-    <t>id|student_id|</t>
-  </si>
-  <si>
-    <t>relations0|from|</t>
-  </si>
-  <si>
-    <t>relations0|id|contact|phone0|</t>
-  </si>
-  <si>
-    <t>relations0|id|drive_id|</t>
-  </si>
-  <si>
-    <t>relations0|id|id|</t>
-  </si>
-  <si>
-    <t>relations0|name|</t>
-  </si>
-  <si>
-    <t>relations0|relate_name|</t>
-  </si>
-  <si>
-    <t>relations0|sex|</t>
-  </si>
-  <si>
-    <t>relations1|from|</t>
-  </si>
-  <si>
-    <t>relations1|id|drive_id|</t>
-  </si>
-  <si>
-    <t>relations1|id|id|</t>
-  </si>
-  <si>
-    <t>relations1|name|</t>
-  </si>
-  <si>
-    <t>relations1|relate_name|</t>
-  </si>
-  <si>
-    <t>relations1|sex|</t>
-  </si>
-  <si>
-    <t>sex|</t>
-  </si>
-  <si>
-    <t>ALKHALIDI SUHAIL SADAM MOHAMMED</t>
-  </si>
-  <si>
-    <t>国际学生</t>
-  </si>
-  <si>
-    <t>0086-18176400448</t>
-  </si>
-  <si>
-    <t>34520242200058</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="63">
+  <si>
+    <t>白千帆</t>
+  </si>
+  <si>
+    <t>大陆生</t>
+  </si>
+  <si>
+    <t>福建省</t>
+  </si>
+  <si>
+    <t>id|class|class</t>
+  </si>
+  <si>
+    <t>id|class|grade</t>
+  </si>
+  <si>
+    <t>id|class|school|duration|end</t>
+  </si>
+  <si>
+    <t>id|class|school|duration|start</t>
+  </si>
+  <si>
+    <t>id|class|school|name</t>
+  </si>
+  <si>
+    <t>18060759106</t>
+  </si>
+  <si>
+    <t>id|drive_id</t>
+  </si>
+  <si>
+    <t>id|id</t>
+  </si>
+  <si>
+    <t>34520242200984</t>
+  </si>
+  <si>
+    <t>relations0|from</t>
+  </si>
+  <si>
+    <t>18005906858</t>
+  </si>
+  <si>
+    <t>relations0|id|drive_id</t>
+  </si>
+  <si>
+    <t>relations0|id|id</t>
+  </si>
+  <si>
+    <t>白晓冬</t>
+  </si>
+  <si>
+    <t>父亲</t>
   </si>
   <si>
     <t>男</t>
   </si>
   <si>
-    <t>LEE TET YEE</t>
-  </si>
-  <si>
-    <t>0060-127108178</t>
-  </si>
-  <si>
-    <t>34520242200059</t>
-  </si>
-  <si>
-    <t>0060-189004913</t>
+    <t>relations1|from</t>
+  </si>
+  <si>
+    <t>17759230896</t>
+  </si>
+  <si>
+    <t>relations1|id|drive_id</t>
+  </si>
+  <si>
+    <t>relations1|id|id</t>
+  </si>
+  <si>
+    <t>刘悦</t>
+  </si>
+  <si>
+    <t>母亲</t>
+  </si>
+  <si>
+    <t>女</t>
+  </si>
+  <si>
+    <t>id|contact|phone1</t>
+  </si>
+  <si>
+    <t>白统</t>
+  </si>
+  <si>
+    <t>河南省</t>
+  </si>
+  <si>
+    <t>15203825067</t>
+  </si>
+  <si>
+    <t>34520242200985</t>
+  </si>
+  <si>
+    <t>18737702324</t>
+  </si>
+  <si>
+    <t>王喜梅</t>
+  </si>
+  <si>
+    <t>18272770160</t>
+  </si>
+  <si>
+    <t>白春阳</t>
+  </si>
+  <si>
+    <t>陈滢</t>
+  </si>
+  <si>
+    <t>湖南省</t>
+  </si>
+  <si>
+    <t>15673528479</t>
+  </si>
+  <si>
+    <t>34520242201010</t>
+  </si>
+  <si>
+    <t>朱敏浩</t>
+  </si>
+  <si>
+    <t>安徽省</t>
+  </si>
+  <si>
+    <t>18815595596</t>
+  </si>
+  <si>
+    <t>34520242201369</t>
+  </si>
+  <si>
+    <t>13731841303</t>
+  </si>
+  <si>
+    <t>朱立军</t>
+  </si>
+  <si>
+    <t>13675594299</t>
+  </si>
+  <si>
+    <t>汪燕君</t>
+  </si>
+  <si>
+    <t>杜文婷</t>
+  </si>
+  <si>
+    <t>海南省</t>
+  </si>
+  <si>
+    <t>15120992990</t>
+  </si>
+  <si>
+    <t>34520242201024</t>
+  </si>
+  <si>
+    <t>13976085050</t>
+  </si>
+  <si>
+    <t>杜辉</t>
+  </si>
+  <si>
+    <t>13976328008</t>
+  </si>
+  <si>
+    <t>魏香玲</t>
+  </si>
+  <si>
+    <t>艾力凯木·吾买尔</t>
+  </si>
+  <si>
+    <t>新疆维吾尔自治区</t>
+  </si>
+  <si>
+    <t>19859286335</t>
+  </si>
+  <si>
+    <t>34520242201373</t>
+  </si>
+  <si>
+    <t>13364926063</t>
+  </si>
+  <si>
+    <t>吾买尔·木合买提</t>
+  </si>
+  <si>
+    <t>13239955851</t>
+  </si>
+  <si>
+    <t>热孜亚·尼亚孜</t>
   </si>
 </sst>
 </file>
@@ -450,13 +534,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z3"/>
+  <dimension ref="A1:AB6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:28">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -535,45 +619,213 @@
       <c r="Z1" t="s">
         <v>25</v>
       </c>
+      <c r="AA1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="2" spans="1:26">
+    <row r="2" spans="1:28">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>28</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N2" t="s">
-        <v>28</v>
+        <v>31</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R2" t="s">
+        <v>24</v>
+      </c>
+      <c r="S2" t="s">
+        <v>25</v>
+      </c>
+      <c r="U2" t="s">
+        <v>33</v>
+      </c>
+      <c r="X2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>17</v>
       </c>
       <c r="Z2" t="s">
-        <v>30</v>
+        <v>18</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:26">
+    <row r="3" spans="1:28">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>36</v>
       </c>
       <c r="I3" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="L3" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="N3" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>30</v>
+        <v>37</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28">
+      <c r="A4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I4" t="s">
+        <v>41</v>
+      </c>
+      <c r="L4" t="s">
+        <v>42</v>
+      </c>
+      <c r="N4" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>44</v>
+      </c>
+      <c r="R4" t="s">
+        <v>17</v>
+      </c>
+      <c r="S4" t="s">
+        <v>18</v>
+      </c>
+      <c r="U4" t="s">
+        <v>45</v>
+      </c>
+      <c r="X4" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28">
+      <c r="A5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>48</v>
+      </c>
+      <c r="I5" t="s">
+        <v>49</v>
+      </c>
+      <c r="L5" t="s">
+        <v>50</v>
+      </c>
+      <c r="N5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>52</v>
+      </c>
+      <c r="R5" t="s">
+        <v>17</v>
+      </c>
+      <c r="S5" t="s">
+        <v>18</v>
+      </c>
+      <c r="U5" t="s">
+        <v>53</v>
+      </c>
+      <c r="X5" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28">
+      <c r="A6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>56</v>
+      </c>
+      <c r="I6" t="s">
+        <v>57</v>
+      </c>
+      <c r="L6" t="s">
+        <v>58</v>
+      </c>
+      <c r="N6" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>60</v>
+      </c>
+      <c r="R6" t="s">
+        <v>17</v>
+      </c>
+      <c r="S6" t="s">
+        <v>18</v>
+      </c>
+      <c r="U6" t="s">
+        <v>61</v>
+      </c>
+      <c r="X6" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
